--- a/biology/Botanique/Aethionema_grandiflorum/Aethionema_grandiflorum.xlsx
+++ b/biology/Botanique/Aethionema_grandiflorum/Aethionema_grandiflorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Æthionème à grandes fleurs, ou Aethionema grandiflorum, est une espèce du genre des Aethionema et de la famille des brassicacées. 
-Certaines de ces espèces d'Aethionema sont inscrites au livre rouge de la flore menacée de France[1].
+Certaines de ces espèces d'Aethionema sont inscrites au livre rouge de la flore menacée de France.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses fleurs sont de couleur rose et avec une odeur forte mais agréable, elles fleurissent en mai et apparaissent à l'extrémité des tiges couvrant la plante complètement, elle aime l'exposition au soleil et tolère le manque d'eau.
 			Aethionema grandiflorum
